--- a/tests/TestCase/Excel/SpoutReaderFormatTest/test_xls.xlsx
+++ b/tests/TestCase/Excel/SpoutReaderFormatTest/test_xls.xlsx
@@ -180,10 +180,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-419]#0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-419]#0"/>
+    <numFmt numFmtId="166" formatCode="d\ mmm&quot;, &quot;yy"/>
+    <numFmt numFmtId="167" formatCode="[$-419]#0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -196,16 +197,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -331,7 +335,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -364,11 +368,15 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -453,10 +461,10 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.78"/>
@@ -474,7 +482,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.78"/>
@@ -786,10 +794,12 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="8" t="n">
+        <v>37602</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1409,8 +1419,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1429,7 +1439,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.78"/>
@@ -1517,10 +1527,10 @@
       <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="H2" s="9" t="n">
+      <c r="H2" s="10" t="n">
         <v>11100</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -1565,10 +1575,10 @@
       <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="10" t="n">
         <v>11100</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -1613,10 +1623,10 @@
       <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="9" t="n">
         <v>250</v>
       </c>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="10" t="n">
         <v>370</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -1661,10 +1671,10 @@
       <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H5" s="10" t="n">
         <v>370</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -1709,10 +1719,10 @@
       <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="10" t="n">
         <v>4590</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -1749,8 +1759,8 @@
     <mergeCell ref="I6:J6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
